--- a/biology/Botanique/J.Phillips/J.Phillips.xlsx
+++ b/biology/Botanique/J.Phillips/J.Phillips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Phillips (25 décembre 1800 — 24 avril 1874) est un géologue britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Phillips naît à Marden dans le Wiltshire. Son père descend d'une vieille famille galloise qui s'installe en Angleterre et se marie avec la sœur de William Smith. Ses parents meurent pendant son enfance. Il est pris en charge par son oncle, et après ses études il l'accompagne dans ses voyages pour la création de sa carte géologique. Au printemps 1824 Phillips l'accompagne à York où Smith donne des cours de géologie. Phillips accepte des engagements  dans les principales villes du Yorkshire pour mettre en ordre leurs musées et pour donner des conférences sur leurs collections. Il s'installe à York, et il est nommé conservateur du musée et secrétaire de la Yorkshire Philosophical Society -- Société de philosophie du Yorkshire.
 En 1831 la British Association for the Advancement of Science est fondée à York ; Phillips est un de ceux qui organisent son fonctionnement. En 1832 il en devient le secrétaire, poste qu'il occupe jusqu'en 1859.
@@ -557,9 +571,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En février 2016, une blue plaque est apposée dans les York Museum Gardens (en) sur la maison qu'il habita entre 1839 et 1853[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En février 2016, une blue plaque est apposée dans les York Museum Gardens (en) sur la maison qu'il habita entre 1839 et 1853,.
 </t>
         </is>
       </c>
